--- a/report/summary_EURJPY_M15_2020-2023_0.xlsx
+++ b/report/summary_EURJPY_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -577,39 +577,39 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K3" t="n">
-        <v>184.7030000000009</v>
+        <v>231.0069999999994</v>
       </c>
       <c r="L3" t="n">
-        <v>20009</v>
+        <v>12425</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.906999999999982</v>
+        <v>-3.436999999999983</v>
       </c>
       <c r="N3" t="n">
-        <v>180.7960000000009</v>
+        <v>227.5699999999994</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3764805837373182</v>
+        <v>0.3544466800804829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,90 +628,90 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="K4" t="n">
-        <v>98.78800000000152</v>
+        <v>184.7030000000009</v>
       </c>
       <c r="L4" t="n">
-        <v>29842</v>
+        <v>20009</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.530000000000001</v>
+        <v>-3.906999999999982</v>
       </c>
       <c r="N4" t="n">
-        <v>96.25800000000152</v>
+        <v>180.7960000000009</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3847932444206152</v>
+        <v>0.3764805837373182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
         <v>10</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EURJPY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I5" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K5" t="n">
-        <v>98.96899999999947</v>
+        <v>145.3490000000008</v>
       </c>
       <c r="L5" t="n">
-        <v>4207</v>
+        <v>5867</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.668999999999983</v>
+        <v>-3.489999999999981</v>
       </c>
       <c r="N5" t="n">
-        <v>95.29999999999949</v>
+        <v>141.8590000000008</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3698597575469456</v>
+        <v>0.3332197034259417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K6" t="n">
-        <v>74.602</v>
+        <v>98.78800000000152</v>
       </c>
       <c r="L6" t="n">
-        <v>3713</v>
+        <v>29842</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.788000000000011</v>
+        <v>-2.530000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>72.81399999999999</v>
+        <v>96.25800000000152</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3897118233234581</v>
+        <v>0.3847932444206152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,39 +781,39 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.25</v>
       </c>
       <c r="J7" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="K7" t="n">
-        <v>70.61400000000056</v>
+        <v>98.96899999999947</v>
       </c>
       <c r="L7" t="n">
-        <v>2320</v>
+        <v>4207</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.593000000000018</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N7" t="n">
-        <v>68.02100000000054</v>
+        <v>95.29999999999949</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3698597575469456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -832,39 +832,39 @@
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K8" t="n">
-        <v>64.5390000000011</v>
+        <v>96.85499999999961</v>
       </c>
       <c r="L8" t="n">
-        <v>7792</v>
+        <v>4147</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.668000000000006</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N8" t="n">
-        <v>61.87100000000109</v>
+        <v>93.18599999999962</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4209445585215606</v>
+        <v>0.3274656378104654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>2.600000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.35</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.1</v>
-      </c>
       <c r="K9" t="n">
-        <v>47.85799999999962</v>
+        <v>91.09100000000007</v>
       </c>
       <c r="L9" t="n">
-        <v>3346</v>
+        <v>3192</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.7789999999999964</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N9" t="n">
-        <v>47.07899999999962</v>
+        <v>87.42200000000008</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5032875074716079</v>
+        <v>0.3323934837092732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I10" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K10" t="n">
-        <v>47.42600000000027</v>
+        <v>74.602</v>
       </c>
       <c r="L10" t="n">
-        <v>2228</v>
+        <v>3713</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.037999999999982</v>
+        <v>-1.788000000000011</v>
       </c>
       <c r="N10" t="n">
-        <v>44.38800000000029</v>
+        <v>72.81399999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3716337522441652</v>
+        <v>0.3897118233234581</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -985,39 +985,39 @@
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.45</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.25</v>
-      </c>
       <c r="K11" t="n">
-        <v>43.86400000000123</v>
+        <v>70.61400000000056</v>
       </c>
       <c r="L11" t="n">
-        <v>8246</v>
+        <v>2320</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.489999999999981</v>
+        <v>-2.593000000000018</v>
       </c>
       <c r="N11" t="n">
-        <v>40.37400000000125</v>
+        <v>68.02100000000054</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3873393160320155</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1039,36 +1039,36 @@
         <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.05</v>
-      </c>
       <c r="K12" t="n">
-        <v>38.22100000000002</v>
+        <v>64.5390000000011</v>
       </c>
       <c r="L12" t="n">
-        <v>8570</v>
+        <v>7792</v>
       </c>
       <c r="M12" t="n">
         <v>-2.668000000000006</v>
       </c>
       <c r="N12" t="n">
-        <v>35.55300000000001</v>
+        <v>61.87100000000109</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4326721120186698</v>
+        <v>0.4209445585215606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1087,39 +1087,39 @@
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="J13" t="n">
         <v>0.1</v>
       </c>
       <c r="K13" t="n">
-        <v>31.97499999999937</v>
+        <v>47.85799999999962</v>
       </c>
       <c r="L13" t="n">
-        <v>2676</v>
+        <v>3346</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.9780000000000086</v>
+        <v>-0.7789999999999964</v>
       </c>
       <c r="N13" t="n">
-        <v>30.99699999999936</v>
+        <v>47.07899999999962</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4233931240657698</v>
+        <v>0.5032875074716079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1138,39 +1138,39 @@
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>19.5629999999998</v>
+        <v>47.42600000000027</v>
       </c>
       <c r="L14" t="n">
-        <v>3714</v>
+        <v>2228</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.788000000000011</v>
+        <v>-3.037999999999982</v>
       </c>
       <c r="N14" t="n">
-        <v>17.77499999999979</v>
+        <v>44.38800000000029</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4574582660204631</v>
+        <v>0.3716337522441652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1189,39 +1189,39 @@
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0.45</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="J15" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="K15" t="n">
-        <v>20.38700000000017</v>
+        <v>43.86400000000123</v>
       </c>
       <c r="L15" t="n">
-        <v>4520</v>
+        <v>8246</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.673000000000002</v>
+        <v>-3.489999999999981</v>
       </c>
       <c r="N15" t="n">
-        <v>17.71400000000017</v>
+        <v>40.37400000000125</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4230088495575221</v>
+        <v>0.3873393160320155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1240,34 +1240,544 @@
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0.05</v>
       </c>
       <c r="K16" t="n">
+        <v>38.22100000000002</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8570</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-2.668000000000006</v>
+      </c>
+      <c r="N16" t="n">
+        <v>35.55300000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4326721120186698</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F17" t="n">
+        <v>60</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.8889999999997</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2826</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.677999999999997</v>
+      </c>
+      <c r="N17" t="n">
+        <v>33.2109999999997</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3814578910120311</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F18" t="n">
+        <v>60</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.97499999999937</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2676</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.9780000000000086</v>
+      </c>
+      <c r="N18" t="n">
+        <v>30.99699999999936</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.4233931240657698</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F19" t="n">
+        <v>60</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.9459999999997</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2038</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.300000000000011</v>
+      </c>
+      <c r="N19" t="n">
+        <v>21.64599999999969</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3910696761530912</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F20" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>23.17999999999994</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2302</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-3.037999999999982</v>
+      </c>
+      <c r="N20" t="n">
+        <v>20.14199999999995</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3779322328410078</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F21" t="n">
+        <v>70</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19.5629999999998</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3714</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1.788000000000011</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17.77499999999979</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.4574582660204631</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F22" t="n">
+        <v>60</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20.38700000000017</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4520</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-2.673000000000002</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17.71400000000017</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4230088495575221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K23" t="n">
         <v>13.19300000000084</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L23" t="n">
         <v>1726</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M23" t="n">
         <v>-0.8790000000000049</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N23" t="n">
         <v>12.31400000000083</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O23" t="n">
         <v>0.440324449594438</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.44100000000012</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3148</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-1.788000000000011</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10.65300000000011</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.4304320203303685</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.97200000000012</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4427</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-3.668999999999983</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.303000000000139</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3733905579399142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F26" t="n">
+        <v>60</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7.576000000000562</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1880</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.111999999999995</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.464000000000567</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.4079787234042553</v>
       </c>
     </row>
   </sheetData>

--- a/report/summary_EURJPY_M15_2020-2023_0.xlsx
+++ b/report/summary_EURJPY_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,7 +711,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="K6" t="n">
-        <v>98.78800000000152</v>
+        <v>113.3610000000007</v>
       </c>
       <c r="L6" t="n">
-        <v>29842</v>
+        <v>3867</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.530000000000001</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N6" t="n">
-        <v>96.25800000000152</v>
+        <v>109.6920000000007</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3847932444206152</v>
+        <v>0.3576415826221878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,39 +781,39 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="n">
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K7" t="n">
-        <v>98.96899999999947</v>
+        <v>98.78800000000152</v>
       </c>
       <c r="L7" t="n">
-        <v>4207</v>
+        <v>29842</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.668999999999983</v>
+        <v>-2.530000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>95.29999999999949</v>
+        <v>96.25800000000152</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3698597575469456</v>
+        <v>0.3847932444206152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -838,33 +838,33 @@
         <v>2.2</v>
       </c>
       <c r="H8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.25</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.45</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="K8" t="n">
-        <v>96.85499999999961</v>
+        <v>98.96899999999947</v>
       </c>
       <c r="L8" t="n">
-        <v>4147</v>
+        <v>4207</v>
       </c>
       <c r="M8" t="n">
         <v>-3.668999999999983</v>
       </c>
       <c r="N8" t="n">
-        <v>93.18599999999962</v>
+        <v>95.29999999999949</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3274656378104654</v>
+        <v>0.3698597575469456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="J9" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="K9" t="n">
-        <v>91.09100000000007</v>
+        <v>96.85499999999961</v>
       </c>
       <c r="L9" t="n">
-        <v>3192</v>
+        <v>4147</v>
       </c>
       <c r="M9" t="n">
         <v>-3.668999999999983</v>
       </c>
       <c r="N9" t="n">
-        <v>87.42200000000008</v>
+        <v>93.18599999999962</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3323934837092732</v>
+        <v>0.3274656378104654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="K10" t="n">
-        <v>74.602</v>
+        <v>91.09100000000007</v>
       </c>
       <c r="L10" t="n">
-        <v>3713</v>
+        <v>3192</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.788000000000011</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N10" t="n">
-        <v>72.81399999999999</v>
+        <v>87.42200000000008</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3897118233234581</v>
+        <v>0.3323934837092732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -985,39 +985,39 @@
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>0.3</v>
       </c>
       <c r="I11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.25</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.45</v>
-      </c>
       <c r="K11" t="n">
-        <v>70.61400000000056</v>
+        <v>74.602</v>
       </c>
       <c r="L11" t="n">
-        <v>2320</v>
+        <v>3713</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.593000000000018</v>
+        <v>-1.788000000000011</v>
       </c>
       <c r="N11" t="n">
-        <v>68.02100000000054</v>
+        <v>72.81399999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3897118233234581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1036,39 +1036,39 @@
         <v>2023</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K12" t="n">
-        <v>64.5390000000011</v>
+        <v>70.61400000000056</v>
       </c>
       <c r="L12" t="n">
-        <v>7792</v>
+        <v>2320</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.668000000000006</v>
+        <v>-2.593000000000018</v>
       </c>
       <c r="N12" t="n">
-        <v>61.87100000000109</v>
+        <v>68.02100000000054</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4209445585215606</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1087,39 +1087,39 @@
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>2.600000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>47.85799999999962</v>
+        <v>64.5390000000011</v>
       </c>
       <c r="L13" t="n">
-        <v>3346</v>
+        <v>7792</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.7789999999999964</v>
+        <v>-2.668000000000006</v>
       </c>
       <c r="N13" t="n">
-        <v>47.07899999999962</v>
+        <v>61.87100000000109</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5032875074716079</v>
+        <v>0.4209445585215606</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1138,39 +1138,39 @@
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I14" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K14" t="n">
-        <v>47.42600000000027</v>
+        <v>57.04800000000274</v>
       </c>
       <c r="L14" t="n">
-        <v>2228</v>
+        <v>28805</v>
       </c>
       <c r="M14" t="n">
-        <v>-3.037999999999982</v>
+        <v>-3.919999999999987</v>
       </c>
       <c r="N14" t="n">
-        <v>44.38800000000029</v>
+        <v>53.12800000000276</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3716337522441652</v>
+        <v>0.4110050338482902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1189,39 +1189,39 @@
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="J15" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K15" t="n">
-        <v>43.86400000000123</v>
+        <v>47.85799999999962</v>
       </c>
       <c r="L15" t="n">
-        <v>8246</v>
+        <v>3346</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.489999999999981</v>
+        <v>-0.7789999999999964</v>
       </c>
       <c r="N15" t="n">
-        <v>40.37400000000125</v>
+        <v>47.07899999999962</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3873393160320155</v>
+        <v>0.5032875074716079</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1240,39 +1240,39 @@
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.15</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>38.22100000000002</v>
+        <v>47.42600000000027</v>
       </c>
       <c r="L16" t="n">
-        <v>8570</v>
+        <v>2228</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.668000000000006</v>
+        <v>-3.037999999999982</v>
       </c>
       <c r="N16" t="n">
-        <v>35.55300000000001</v>
+        <v>44.38800000000029</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4326721120186698</v>
+        <v>0.3716337522441652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1291,39 +1291,39 @@
         <v>2023</v>
       </c>
       <c r="F17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.45</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3</v>
-      </c>
       <c r="K17" t="n">
-        <v>35.8889999999997</v>
+        <v>42.80599999999987</v>
       </c>
       <c r="L17" t="n">
-        <v>2826</v>
+        <v>1976</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.677999999999997</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="N17" t="n">
-        <v>33.2109999999997</v>
+        <v>41.50599999999986</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3814578910120311</v>
+        <v>0.3572874493927126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         <v>2023</v>
       </c>
       <c r="F18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0.15</v>
@@ -1354,27 +1354,27 @@
         <v>0.05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K18" t="n">
-        <v>31.97499999999937</v>
+        <v>41.47700000000036</v>
       </c>
       <c r="L18" t="n">
-        <v>2676</v>
+        <v>3272</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.9780000000000086</v>
+        <v>-0.6229999999999905</v>
       </c>
       <c r="N18" t="n">
-        <v>30.99699999999936</v>
+        <v>40.85400000000037</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4233931240657698</v>
+        <v>0.4520171149144254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1393,39 +1393,39 @@
         <v>2023</v>
       </c>
       <c r="F19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G19" t="n">
-        <v>3.600000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="I19" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="J19" t="n">
         <v>0.25</v>
       </c>
       <c r="K19" t="n">
-        <v>22.9459999999997</v>
+        <v>43.86400000000123</v>
       </c>
       <c r="L19" t="n">
-        <v>2038</v>
+        <v>8246</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.300000000000011</v>
+        <v>-3.489999999999981</v>
       </c>
       <c r="N19" t="n">
-        <v>21.64599999999969</v>
+        <v>40.37400000000125</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3910696761530912</v>
+        <v>0.3873393160320155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1447,36 +1447,36 @@
         <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="K20" t="n">
-        <v>23.17999999999994</v>
+        <v>38.22100000000002</v>
       </c>
       <c r="L20" t="n">
-        <v>2302</v>
+        <v>8570</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.037999999999982</v>
+        <v>-2.668000000000006</v>
       </c>
       <c r="N20" t="n">
-        <v>20.14199999999995</v>
+        <v>35.55300000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3779322328410078</v>
+        <v>0.4326721120186698</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1495,39 +1495,39 @@
         <v>2023</v>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.3</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.05</v>
-      </c>
       <c r="K21" t="n">
-        <v>19.5629999999998</v>
+        <v>35.8889999999997</v>
       </c>
       <c r="L21" t="n">
-        <v>3714</v>
+        <v>2826</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.788000000000011</v>
+        <v>-2.677999999999997</v>
       </c>
       <c r="N21" t="n">
-        <v>17.77499999999979</v>
+        <v>33.2109999999997</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4574582660204631</v>
+        <v>0.3814578910120311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1549,36 +1549,36 @@
         <v>60</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I22" t="n">
         <v>0.05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="K22" t="n">
-        <v>20.38700000000017</v>
+        <v>31.97499999999937</v>
       </c>
       <c r="L22" t="n">
-        <v>4520</v>
+        <v>2676</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.673000000000002</v>
+        <v>-0.9780000000000086</v>
       </c>
       <c r="N22" t="n">
-        <v>17.71400000000017</v>
+        <v>30.99699999999936</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4230088495575221</v>
+        <v>0.4233931240657698</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1597,39 +1597,39 @@
         <v>2023</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.15</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J23" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="K23" t="n">
-        <v>13.19300000000084</v>
+        <v>22.9459999999997</v>
       </c>
       <c r="L23" t="n">
-        <v>1726</v>
+        <v>2038</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.8790000000000049</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="N23" t="n">
-        <v>12.31400000000083</v>
+        <v>21.64599999999969</v>
       </c>
       <c r="O23" t="n">
-        <v>0.440324449594438</v>
+        <v>0.3910696761530912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1648,39 +1648,39 @@
         <v>2023</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="K24" t="n">
-        <v>12.44100000000012</v>
+        <v>23.17999999999994</v>
       </c>
       <c r="L24" t="n">
-        <v>3148</v>
+        <v>2302</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.788000000000011</v>
+        <v>-3.037999999999982</v>
       </c>
       <c r="N24" t="n">
-        <v>10.65300000000011</v>
+        <v>20.14199999999995</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4304320203303685</v>
+        <v>0.3779322328410078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1699,39 +1699,39 @@
         <v>2023</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="K25" t="n">
-        <v>11.97200000000012</v>
+        <v>19.5629999999998</v>
       </c>
       <c r="L25" t="n">
-        <v>4427</v>
+        <v>3714</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.668999999999983</v>
+        <v>-1.788000000000011</v>
       </c>
       <c r="N25" t="n">
-        <v>8.303000000000139</v>
+        <v>17.77499999999979</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3733905579399142</v>
+        <v>0.4574582660204631</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1753,31 +1753,286 @@
         <v>60</v>
       </c>
       <c r="G26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20.38700000000017</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4520</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-2.673000000000002</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17.71400000000017</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.4230088495575221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13.19300000000084</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1726</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12.31400000000083</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.440324449594438</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.44100000000012</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3148</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-1.788000000000011</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10.65300000000011</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.4304320203303685</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.97200000000012</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4427</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-3.668999999999983</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.303000000000139</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.3733905579399142</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F30" t="n">
+        <v>60</v>
+      </c>
+      <c r="G30" t="n">
         <v>3.8</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>0.2</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>0.25</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J30" t="n">
         <v>0.1</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K30" t="n">
         <v>7.576000000000562</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>1880</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M30" t="n">
         <v>-1.111999999999995</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N30" t="n">
         <v>6.464000000000567</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O30" t="n">
         <v>0.4079787234042553</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F31" t="n">
+        <v>70</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-38.10599999999934</v>
+      </c>
+      <c r="L31" t="n">
+        <v>11346</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-3.906999999999982</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-42.01299999999932</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.4182971972501322</v>
       </c>
     </row>
   </sheetData>

--- a/report/summary_EURJPY_M15_2020-2023_0.xlsx
+++ b/report/summary_EURJPY_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,39 +526,39 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="n">
         <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="J2" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K2" t="n">
-        <v>335.3120000000016</v>
+        <v>413.6790000000023</v>
       </c>
       <c r="L2" t="n">
-        <v>16155</v>
+        <v>22486</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.436999999999983</v>
+        <v>-3.585999999999984</v>
       </c>
       <c r="N2" t="n">
-        <v>331.8750000000016</v>
+        <v>410.0930000000023</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3425564840606624</v>
+        <v>0.3448812594503247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -577,39 +577,39 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="K3" t="n">
-        <v>231.0069999999994</v>
+        <v>335.3120000000016</v>
       </c>
       <c r="L3" t="n">
-        <v>12425</v>
+        <v>16155</v>
       </c>
       <c r="M3" t="n">
         <v>-3.436999999999983</v>
       </c>
       <c r="N3" t="n">
-        <v>227.5699999999994</v>
+        <v>331.8750000000016</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3544466800804829</v>
+        <v>0.3425564840606624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,90 +628,90 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="K4" t="n">
-        <v>184.7030000000009</v>
+        <v>299.7930000000003</v>
       </c>
       <c r="L4" t="n">
-        <v>20009</v>
+        <v>22762</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.906999999999982</v>
+        <v>-2.530000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>180.7960000000009</v>
+        <v>297.2630000000004</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3764805837373182</v>
+        <v>0.4017221685264915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
         <v>20</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EURJPY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.25</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4</v>
-      </c>
       <c r="K5" t="n">
-        <v>145.3490000000008</v>
+        <v>231.0069999999994</v>
       </c>
       <c r="L5" t="n">
-        <v>5867</v>
+        <v>12425</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.489999999999981</v>
+        <v>-3.436999999999983</v>
       </c>
       <c r="N5" t="n">
-        <v>141.8590000000008</v>
+        <v>227.5699999999994</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3332197034259417</v>
+        <v>0.3544466800804829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="K6" t="n">
-        <v>113.3610000000007</v>
+        <v>196.1649999999997</v>
       </c>
       <c r="L6" t="n">
-        <v>3867</v>
+        <v>9428</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.668999999999983</v>
+        <v>-2.668000000000006</v>
       </c>
       <c r="N6" t="n">
-        <v>109.6920000000007</v>
+        <v>193.4969999999996</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3576415826221878</v>
+        <v>0.4517394993635978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,90 +781,90 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.15</v>
-      </c>
       <c r="K7" t="n">
-        <v>98.78800000000152</v>
+        <v>184.7030000000009</v>
       </c>
       <c r="L7" t="n">
-        <v>29842</v>
+        <v>20009</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.530000000000001</v>
+        <v>-3.906999999999982</v>
       </c>
       <c r="N7" t="n">
-        <v>96.25800000000152</v>
+        <v>180.7960000000009</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3847932444206152</v>
+        <v>0.3764805837373182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="n">
         <v>10</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EURJPY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F8" t="n">
-        <v>60</v>
-      </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I8" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K8" t="n">
-        <v>98.96899999999947</v>
+        <v>145.3490000000008</v>
       </c>
       <c r="L8" t="n">
-        <v>4207</v>
+        <v>5867</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.668999999999983</v>
+        <v>-3.489999999999981</v>
       </c>
       <c r="N8" t="n">
-        <v>95.29999999999949</v>
+        <v>141.8590000000008</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3698597575469456</v>
+        <v>0.3332197034259417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>96.85499999999961</v>
+        <v>113.3610000000007</v>
       </c>
       <c r="L9" t="n">
-        <v>4147</v>
+        <v>3867</v>
       </c>
       <c r="M9" t="n">
         <v>-3.668999999999983</v>
       </c>
       <c r="N9" t="n">
-        <v>93.18599999999962</v>
+        <v>109.6920000000007</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3274656378104654</v>
+        <v>0.3576415826221878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="n">
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="K10" t="n">
-        <v>91.09100000000007</v>
+        <v>98.78800000000152</v>
       </c>
       <c r="L10" t="n">
-        <v>3192</v>
+        <v>29842</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.668999999999983</v>
+        <v>-2.530000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>87.42200000000008</v>
+        <v>96.25800000000152</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3323934837092732</v>
+        <v>0.3847932444206152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -985,39 +985,39 @@
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J11" t="n">
         <v>0.25</v>
       </c>
       <c r="K11" t="n">
-        <v>74.602</v>
+        <v>98.96899999999947</v>
       </c>
       <c r="L11" t="n">
-        <v>3713</v>
+        <v>4207</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.788000000000011</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N11" t="n">
-        <v>72.81399999999999</v>
+        <v>95.29999999999949</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3897118233234581</v>
+        <v>0.3698597575469456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1036,39 +1036,39 @@
         <v>2023</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I12" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="J12" t="n">
         <v>0.45</v>
       </c>
       <c r="K12" t="n">
-        <v>70.61400000000056</v>
+        <v>96.85499999999961</v>
       </c>
       <c r="L12" t="n">
-        <v>2320</v>
+        <v>4147</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.593000000000018</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N12" t="n">
-        <v>68.02100000000054</v>
+        <v>93.18599999999962</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3274656378104654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1087,39 +1087,39 @@
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K13" t="n">
-        <v>64.5390000000011</v>
+        <v>91.09100000000007</v>
       </c>
       <c r="L13" t="n">
-        <v>7792</v>
+        <v>3192</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.668000000000006</v>
+        <v>-3.668999999999983</v>
       </c>
       <c r="N13" t="n">
-        <v>61.87100000000109</v>
+        <v>87.42200000000008</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4209445585215606</v>
+        <v>0.3323934837092732</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1138,39 +1138,39 @@
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.05</v>
-      </c>
       <c r="J14" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K14" t="n">
-        <v>57.04800000000274</v>
+        <v>74.602</v>
       </c>
       <c r="L14" t="n">
-        <v>28805</v>
+        <v>3713</v>
       </c>
       <c r="M14" t="n">
-        <v>-3.919999999999987</v>
+        <v>-1.788000000000011</v>
       </c>
       <c r="N14" t="n">
-        <v>53.12800000000276</v>
+        <v>72.81399999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4110050338482902</v>
+        <v>0.3897118233234581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1189,39 +1189,39 @@
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>2.600000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="I15" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="K15" t="n">
-        <v>47.85799999999962</v>
+        <v>70.61400000000056</v>
       </c>
       <c r="L15" t="n">
-        <v>3346</v>
+        <v>2320</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.7789999999999964</v>
+        <v>-2.593000000000018</v>
       </c>
       <c r="N15" t="n">
-        <v>47.07899999999962</v>
+        <v>68.02100000000054</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5032875074716079</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1240,39 +1240,39 @@
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K16" t="n">
-        <v>47.42600000000027</v>
+        <v>71.5089999999997</v>
       </c>
       <c r="L16" t="n">
-        <v>2228</v>
+        <v>3356</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.037999999999982</v>
+        <v>-3.585999999999984</v>
       </c>
       <c r="N16" t="n">
-        <v>44.38800000000029</v>
+        <v>67.92299999999972</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3716337522441652</v>
+        <v>0.3006555423122765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1291,39 +1291,39 @@
         <v>2023</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="K17" t="n">
-        <v>42.80599999999987</v>
+        <v>63.37900000000037</v>
       </c>
       <c r="L17" t="n">
-        <v>1976</v>
+        <v>3054</v>
       </c>
       <c r="M17" t="n">
         <v>-1.300000000000011</v>
       </c>
       <c r="N17" t="n">
-        <v>41.50599999999986</v>
+        <v>62.07900000000036</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3572874493927126</v>
+        <v>0.3542894564505567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1342,39 +1342,39 @@
         <v>2023</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>2.600000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>41.47700000000036</v>
+        <v>64.5390000000011</v>
       </c>
       <c r="L18" t="n">
-        <v>3272</v>
+        <v>7792</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.6229999999999905</v>
+        <v>-2.668000000000006</v>
       </c>
       <c r="N18" t="n">
-        <v>40.85400000000037</v>
+        <v>61.87100000000109</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4520171149144254</v>
+        <v>0.4209445585215606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1393,39 +1393,39 @@
         <v>2023</v>
       </c>
       <c r="F19" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I19" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="J19" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K19" t="n">
-        <v>43.86400000000123</v>
+        <v>59.42000000000196</v>
       </c>
       <c r="L19" t="n">
-        <v>8246</v>
+        <v>22593</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.489999999999981</v>
+        <v>-3.906999999999982</v>
       </c>
       <c r="N19" t="n">
-        <v>40.37400000000125</v>
+        <v>55.51300000000198</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3873393160320155</v>
+        <v>0.4072942946930465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1444,39 +1444,39 @@
         <v>2023</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K20" t="n">
-        <v>38.22100000000002</v>
+        <v>57.04800000000274</v>
       </c>
       <c r="L20" t="n">
-        <v>8570</v>
+        <v>28805</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.668000000000006</v>
+        <v>-3.919999999999987</v>
       </c>
       <c r="N20" t="n">
-        <v>35.55300000000001</v>
+        <v>53.12800000000276</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4326721120186698</v>
+        <v>0.4110050338482902</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1495,39 +1495,39 @@
         <v>2023</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="I21" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.3</v>
-      </c>
       <c r="K21" t="n">
-        <v>35.8889999999997</v>
+        <v>47.85799999999962</v>
       </c>
       <c r="L21" t="n">
-        <v>2826</v>
+        <v>3346</v>
       </c>
       <c r="M21" t="n">
-        <v>-2.677999999999997</v>
+        <v>-0.7789999999999964</v>
       </c>
       <c r="N21" t="n">
-        <v>33.2109999999997</v>
+        <v>47.07899999999962</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3814578910120311</v>
+        <v>0.5032875074716079</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1546,39 +1546,39 @@
         <v>2023</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>31.97499999999937</v>
+        <v>48.06100000000021</v>
       </c>
       <c r="L22" t="n">
-        <v>2676</v>
+        <v>1880</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.9780000000000086</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="N22" t="n">
-        <v>30.99699999999936</v>
+        <v>46.76100000000019</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4233931240657698</v>
+        <v>0.3223404255319149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1600,36 +1600,36 @@
         <v>60</v>
       </c>
       <c r="G23" t="n">
-        <v>3.600000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I23" t="n">
         <v>0.15</v>
       </c>
       <c r="J23" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K23" t="n">
-        <v>22.9459999999997</v>
+        <v>47.42600000000027</v>
       </c>
       <c r="L23" t="n">
-        <v>2038</v>
+        <v>2228</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.300000000000011</v>
+        <v>-3.037999999999982</v>
       </c>
       <c r="N23" t="n">
-        <v>21.64599999999969</v>
+        <v>44.38800000000029</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3910696761530912</v>
+        <v>0.3716337522441652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1648,39 +1648,39 @@
         <v>2023</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="K24" t="n">
-        <v>23.17999999999994</v>
+        <v>45.53199999999963</v>
       </c>
       <c r="L24" t="n">
-        <v>2302</v>
+        <v>2512</v>
       </c>
       <c r="M24" t="n">
-        <v>-3.037999999999982</v>
+        <v>-1.240999999999985</v>
       </c>
       <c r="N24" t="n">
-        <v>20.14199999999995</v>
+        <v>44.29099999999964</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3779322328410078</v>
+        <v>0.3829617834394904</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1699,39 +1699,39 @@
         <v>2023</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.3</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="K25" t="n">
-        <v>19.5629999999998</v>
+        <v>42.80599999999987</v>
       </c>
       <c r="L25" t="n">
-        <v>3714</v>
+        <v>1976</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.788000000000011</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="N25" t="n">
-        <v>17.77499999999979</v>
+        <v>41.50599999999986</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4574582660204631</v>
+        <v>0.3572874493927126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1750,39 +1750,39 @@
         <v>2023</v>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I26" t="n">
         <v>0.05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="K26" t="n">
-        <v>20.38700000000017</v>
+        <v>41.47700000000036</v>
       </c>
       <c r="L26" t="n">
-        <v>4520</v>
+        <v>3272</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.673000000000002</v>
+        <v>-0.6229999999999905</v>
       </c>
       <c r="N26" t="n">
-        <v>17.71400000000017</v>
+        <v>40.85400000000037</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4230088495575221</v>
+        <v>0.4520171149144254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1801,39 +1801,39 @@
         <v>2023</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="K27" t="n">
-        <v>13.19300000000084</v>
+        <v>43.86400000000123</v>
       </c>
       <c r="L27" t="n">
-        <v>1726</v>
+        <v>8246</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.8790000000000049</v>
+        <v>-3.489999999999981</v>
       </c>
       <c r="N27" t="n">
-        <v>12.31400000000083</v>
+        <v>40.37400000000125</v>
       </c>
       <c r="O27" t="n">
-        <v>0.440324449594438</v>
+        <v>0.3873393160320155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1852,13 +1852,13 @@
         <v>2023</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I28" t="n">
         <v>0.15</v>
@@ -1867,24 +1867,24 @@
         <v>0.1</v>
       </c>
       <c r="K28" t="n">
-        <v>12.44100000000012</v>
+        <v>39.36500000000004</v>
       </c>
       <c r="L28" t="n">
-        <v>3148</v>
+        <v>4878</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.788000000000011</v>
+        <v>-2.668000000000006</v>
       </c>
       <c r="N28" t="n">
-        <v>10.65300000000011</v>
+        <v>36.69700000000003</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4304320203303685</v>
+        <v>0.4387043870438704</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1903,39 +1903,39 @@
         <v>2023</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="K29" t="n">
-        <v>11.97200000000012</v>
+        <v>38.22100000000002</v>
       </c>
       <c r="L29" t="n">
-        <v>4427</v>
+        <v>8570</v>
       </c>
       <c r="M29" t="n">
-        <v>-3.668999999999983</v>
+        <v>-2.668000000000006</v>
       </c>
       <c r="N29" t="n">
-        <v>8.303000000000139</v>
+        <v>35.55300000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3733905579399142</v>
+        <v>0.4326721120186698</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1957,36 +1957,36 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I30" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K30" t="n">
-        <v>7.576000000000562</v>
+        <v>35.8889999999997</v>
       </c>
       <c r="L30" t="n">
-        <v>1880</v>
+        <v>2826</v>
       </c>
       <c r="M30" t="n">
-        <v>-1.111999999999995</v>
+        <v>-2.677999999999997</v>
       </c>
       <c r="N30" t="n">
-        <v>6.464000000000567</v>
+        <v>33.2109999999997</v>
       </c>
       <c r="O30" t="n">
-        <v>0.4079787234042553</v>
+        <v>0.3814578910120311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2005,34 +2005,952 @@
         <v>2023</v>
       </c>
       <c r="F31" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="I31" t="n">
         <v>0.2</v>
       </c>
       <c r="J31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>32.42700000000033</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1812</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.111999999999995</v>
+      </c>
+      <c r="N31" t="n">
+        <v>31.31500000000034</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.3852097130242826</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F32" t="n">
+        <v>60</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.1</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K32" t="n">
+        <v>31.97499999999937</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2676</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.9780000000000086</v>
+      </c>
+      <c r="N32" t="n">
+        <v>30.99699999999936</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4233931240657698</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>28.89900000000073</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2744</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-2.664000000000016</v>
+      </c>
+      <c r="N33" t="n">
+        <v>26.23500000000071</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.3644314868804664</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22.9459999999997</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2038</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1.300000000000011</v>
+      </c>
+      <c r="N34" t="n">
+        <v>21.64599999999969</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.3910696761530912</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F35" t="n">
+        <v>50</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K35" t="n">
+        <v>23.17999999999994</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2302</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-3.037999999999982</v>
+      </c>
+      <c r="N35" t="n">
+        <v>20.14199999999995</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.3779322328410078</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>18.78299999999966</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1908</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N36" t="n">
+        <v>17.90399999999966</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F37" t="n">
+        <v>70</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>19.5629999999998</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3714</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-1.788000000000011</v>
+      </c>
+      <c r="N37" t="n">
+        <v>17.77499999999979</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.4574582660204631</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F38" t="n">
+        <v>60</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20.38700000000017</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4520</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-2.673000000000002</v>
+      </c>
+      <c r="N38" t="n">
+        <v>17.71400000000017</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.4230088495575221</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F39" t="n">
+        <v>30</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>17.31700000000004</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3100</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.161999999999978</v>
+      </c>
+      <c r="N39" t="n">
+        <v>16.15500000000006</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.4451612903225807</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>13.19300000000084</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1726</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.8790000000000049</v>
+      </c>
+      <c r="N40" t="n">
+        <v>12.31400000000083</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.440324449594438</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>12.44100000000012</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3148</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-1.788000000000011</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10.65300000000011</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.4304320203303685</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11.97200000000012</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4427</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3.668999999999983</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.303000000000139</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.3733905579399142</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F43" t="n">
+        <v>60</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7.576000000000562</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1880</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1.111999999999995</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.464000000000567</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.4079787234042553</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F44" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.978000000000648</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2248</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-1.161999999999978</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5.81600000000067</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.4893238434163701</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.649000000000726</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4428</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.8979999999999961</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.75100000000073</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.4733514001806685</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F46" t="n">
+        <v>40</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.691000000000315</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4199</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-3.585999999999984</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.105000000000331</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.3698499642772088</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-24.3379999999988</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6087</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-3.489999999999981</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-27.82799999999878</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.3597831444061114</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F48" t="n">
+        <v>70</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K48" t="n">
         <v>-38.10599999999934</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L48" t="n">
         <v>11346</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M48" t="n">
         <v>-3.906999999999982</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N48" t="n">
         <v>-42.01299999999932</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O48" t="n">
         <v>0.4182971972501322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-55.73499999999824</v>
+      </c>
+      <c r="L49" t="n">
+        <v>13903</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-3.906999999999982</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-59.64199999999822</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.3705675034165288</v>
       </c>
     </row>
   </sheetData>
